--- a/Admin/projectMaster.xlsx
+++ b/Admin/projectMaster.xlsx
@@ -114,9 +114,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -125,6 +122,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,7 +406,7 @@
   <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,14 +420,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -450,222 +450,222 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4">
-        <v>42546</v>
+      <c r="G4" s="3">
+        <v>42548</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Admin/projectMaster.xlsx
+++ b/Admin/projectMaster.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27217"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cflannery-MBP/Documents/Propulsion/Admin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Triton_Rocket_Club\Propulsion\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="645" yWindow="1185" windowWidth="28155" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Project Master</t>
   </si>
@@ -66,12 +66,78 @@
   </si>
   <si>
     <t>Determine materials necessary for manufacturing practice and resulting products</t>
+  </si>
+  <si>
+    <t>Motor Calculations</t>
+  </si>
+  <si>
+    <t>Validate motor calculations for Q-motor</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Motor Calc Sheet Validation</t>
+  </si>
+  <si>
+    <t>Verify the formulas and methods used in the motor calculation sheet</t>
+  </si>
+  <si>
+    <t>/Launches/8-inch/design/calculations/trunk/</t>
+  </si>
+  <si>
+    <t>Design, Analysis</t>
+  </si>
+  <si>
+    <t>7/11/2016</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Neal</t>
+  </si>
+  <si>
+    <t>CAD Entire Rocket</t>
+  </si>
+  <si>
+    <t>*work with SLV</t>
+  </si>
+  <si>
+    <t>Generate BOM for Nozzle</t>
+  </si>
+  <si>
+    <t>Finish CAD for Nozzle</t>
+  </si>
+  <si>
+    <t>/Launches/8-inch/design/CAD/trunk</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>* we need 4 weeks lead time to get grains cast</t>
+  </si>
+  <si>
+    <t>Quote from John/Order Grains</t>
+  </si>
+  <si>
+    <t>Kenny</t>
+  </si>
+  <si>
+    <t>Richard, Kenny</t>
+  </si>
+  <si>
+    <t>CAD Forward Bulkhead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -112,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -126,6 +192,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,6 +204,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -403,23 +475,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G28"/>
+  <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="38.125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -429,7 +501,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -449,7 +521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -469,7 +541,7 @@
         <v>42548</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -480,66 +552,142 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3">
+        <v>42560</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3">
+        <v>42566</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
+      <c r="G8" s="3">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="3">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="3">
+        <v>42207</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -547,15 +695,18 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -563,7 +714,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -571,7 +722,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -579,7 +730,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -587,7 +738,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -595,7 +746,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -603,7 +754,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -611,7 +762,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -619,15 +770,15 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -635,7 +786,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -643,7 +794,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -651,7 +802,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -659,13 +810,21 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Admin/projectMaster.xlsx
+++ b/Admin/projectMaster.xlsx
@@ -189,11 +189,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,7 +478,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -492,14 +492,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -575,7 +575,7 @@
       <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Admin/projectMaster.xlsx
+++ b/Admin/projectMaster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Project Master</t>
   </si>
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,13 +146,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -175,10 +211,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -189,14 +228,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,7 +538,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -492,14 +552,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -541,133 +601,133 @@
         <v>42548</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="8">
         <v>42560</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="9">
         <v>42566</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3">
+      <c r="F8" s="10"/>
+      <c r="G8" s="11">
         <v>42200</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="11">
         <v>42196</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="11">
         <v>42200</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="11">
         <v>42200</v>
       </c>
     </row>
@@ -682,7 +742,9 @@
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G12" s="3">
         <v>42207</v>
       </c>
